--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3565465.545076501</v>
+        <v>3558448.53018479</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>96.36163317610313</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>13.90912412328831</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>38.85099796338696</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>23.02457248166897</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>356.1293079165106</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>367.9250265777646</v>
       </c>
     </row>
     <row r="6">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.54110646053125</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>135.0717022849347</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>33.55153537551127</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>337.4550179536795</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.52687838733162</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>22.35153719005481</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>32.70075835766964</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>147.2810222559807</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>127.3708217049519</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>245.8447460296572</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>71.60353798991189</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>20.5798640315433</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>46.9533556596234</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>169.8277167599797</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>188.4590648403943</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6796185202537</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>5.56262439642444</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>136.1640824242858</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.071937507661</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>219.6052955211489</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>92.2857229403224</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913.7382812066351</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C2" t="n">
-        <v>913.7382812066351</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>569.2417729283424</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2628.070781222162</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2374.308995860253</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2043.246108516683</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1690.477453246569</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1690.477453246569</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1300.338121270757</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="3">
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>688.885551920185</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>704.8718402855565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>704.8718402855565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>477.5636529541582</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>477.5636529541582</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>588.0044362889284</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C5" t="n">
-        <v>588.0044362889284</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>588.0044362889284</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1364.743608328862</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1364.743608328862</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>974.6042763530502</v>
+        <v>1191.835263233623</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6275373157412</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>400.6823320653275</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>253.7923845674171</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>562.2760021459809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>562.2760021459809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>562.2760021459809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>562.2760021459809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>562.2760021459809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>562.2760021459809</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1156.179761166177</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>787.2172442257649</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>428.9515456190144</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>428.9515456190144</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.779601230298</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y8" t="n">
-        <v>1542.779601230298</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>76.52029211334911</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5032,34 +5032,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,19 +5120,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
         <v>1808.163466324677</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>743.3431626812556</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>726.1584037733163</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W13" t="n">
-        <v>436.7412337363557</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7516828383384</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>743.3431626812556</v>
       </c>
     </row>
     <row r="14">
@@ -5257,34 +5257,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,13 +5296,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5311,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.7235151749151</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C16" t="n">
-        <v>563.7235151749151</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D16" t="n">
-        <v>563.7235151749151</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1370.258874896335</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1370.258874896335</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1081.130236109893</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1081.130236109893</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>791.7130660729324</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X16" t="n">
-        <v>563.7235151749151</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.7235151749151</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,13 +5536,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4595.498205900219</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>506.8551071885429</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,40 +5737,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>882.7763375151577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>955.1031435655738</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>955.1031435655738</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>955.1031435655738</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>672.4909068465487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227918</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>874.9271131227918</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>854.1393716767884</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>854.1393716767884</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>854.1393716767884</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823768</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>713.5778697504956</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6384,16 +6384,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1451.488638578485</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1451.488638578485</v>
+        <v>1327.373122315499</v>
       </c>
       <c r="U28" t="n">
-        <v>1162.359999792043</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V28" t="n">
-        <v>1162.359999792043</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W28" t="n">
-        <v>1162.359999792043</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X28" t="n">
-        <v>934.3704488940257</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y28" t="n">
-        <v>713.5778697504956</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6442,28 +6442,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3887.539261805029</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C31" t="n">
-        <v>3718.603078877122</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
-        <v>3718.603078877122</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U31" t="n">
-        <v>4358.604896672229</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V31" t="n">
-        <v>4358.604896672229</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W31" t="n">
-        <v>4069.187726635269</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X31" t="n">
-        <v>4069.187726635269</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y31" t="n">
-        <v>4069.187726635269</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3464.774206438316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3464.774206438316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3464.774206438316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3464.774206438316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>4525.994054365623</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4236.865415579181</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>3982.180927373294</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>3692.763757336334</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3464.774206438316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>3464.774206438316</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4024.31787775355</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4024.31787775355</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3886.778400557302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576119</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576119</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4460.650830789677</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4205.96634258379</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4205.96634258379</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4205.96634258379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4205.96634258379</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4356.249231349601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>4187.313048421694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>4037.196409009358</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4749.779469576119</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4749.779469576119</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4749.779469576119</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4460.362299539158</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4460.362299539158</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4460.362299539158</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7393,46 +7393,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3944.179992107155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3775.243809179248</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3775.243809179248</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>4415.245626974355</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>4415.245626974355</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>4125.828456937395</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>4125.828456937395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>4125.828456937395</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7630,28 +7630,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028556</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4168.996359003562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>4168.996359003562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>4018.879719591227</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3870.966626008833</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3870.966626008833</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3702.791304328654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3552.373295876597</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>4860.854573014292</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>4571.437402977332</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4571.437402977332</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>4350.644823833802</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9184,10 +9184,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>283.6093329825492</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>253.7371603504738</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,25 +10190,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>199.6230805871096</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>73.64859338270691</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>297.2466435761029</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,19 +11147,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>145.2351313103795</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,19 +11384,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>145.2351313103795</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>134.5460627409582</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>104.8566210678473</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>70.5499882786514</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>140.3375291694992</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>40.67825230693376</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>108.2284421920254</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>265.9431343050477</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>150.9674543239798</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>51.71984429840955</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>33.08849621799493</v>
       </c>
       <c r="U31" t="n">
-        <v>10.55773387832363</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>139.8584236265068</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>12.45139059392656</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>76.76004267427632</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>66.63205687742843</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>18.13352252394959</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>693265.1534158317</v>
+        <v>693265.1534158319</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>693265.1534158317</v>
+        <v>693265.1534158319</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778546</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778547</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778549</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="E2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278762</v>
       </c>
       <c r="G2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="H2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.307527876</v>
       </c>
       <c r="I2" t="n">
         <v>703852.3075278756</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278754</v>
       </c>
       <c r="K2" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.307527876</v>
       </c>
       <c r="L2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.307527876</v>
       </c>
       <c r="M2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.307527876</v>
       </c>
       <c r="N2" t="n">
         <v>703852.3075278759</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.307527876</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.307527876</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230234</v>
@@ -26438,25 +26438,25 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="K4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29303.54555230234</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26481,25 +26481,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108380.1417219254</v>
+        <v>-108380.1417219256</v>
       </c>
       <c r="C6" t="n">
-        <v>481587.7374926193</v>
+        <v>481587.7374926191</v>
       </c>
       <c r="D6" t="n">
         <v>481587.7374926191</v>
       </c>
       <c r="E6" t="n">
-        <v>57401.39954996102</v>
+        <v>56426.80829023937</v>
       </c>
       <c r="F6" t="n">
-        <v>582561.4360268567</v>
+        <v>581586.8447671356</v>
       </c>
       <c r="G6" t="n">
-        <v>582561.436026857</v>
+        <v>581586.8447671353</v>
       </c>
       <c r="H6" t="n">
-        <v>582561.4360268569</v>
+        <v>581586.8447671353</v>
       </c>
       <c r="I6" t="n">
-        <v>582561.4360268567</v>
+        <v>581586.8447671348</v>
       </c>
       <c r="J6" t="n">
-        <v>406138.2168342639</v>
+        <v>405163.6255745417</v>
       </c>
       <c r="K6" t="n">
-        <v>582561.4360268572</v>
+        <v>581586.8447671358</v>
       </c>
       <c r="L6" t="n">
-        <v>582561.4360268567</v>
+        <v>581586.8447671353</v>
       </c>
       <c r="M6" t="n">
-        <v>447760.4207930197</v>
+        <v>446785.8295332983</v>
       </c>
       <c r="N6" t="n">
-        <v>582561.4360268569</v>
+        <v>581586.8447671353</v>
       </c>
       <c r="O6" t="n">
-        <v>582561.4360268565</v>
+        <v>581586.8447671353</v>
       </c>
       <c r="P6" t="n">
-        <v>582561.4360268567</v>
+        <v>581586.8447671353</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26758,22 +26758,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>55.56968306875812</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>202.5391962343695</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>140.9809822185503</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>123.6406194984889</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>25.80106215575114</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>18.31291207828895</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>89.96340317314957</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>373.3245103662002</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>11.78595076373352</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>229.7861061337732</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35503,7 +35503,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35746,7 +35746,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,10 +35904,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.689756130333</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>594.0337100330154</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150206</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>586.9317337484866</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>510.0474576375758</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>356.012295623815</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>630.4412169741157</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,19 +37867,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>455.6595083608457</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38104,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>455.6595083608457</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3558448.53018479</v>
+        <v>3563387.793033823</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>358.2144869520369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>96.36163317610313</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.85099796338696</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>317.1659952951788</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.9250265777646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>38.85099796338707</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.54110646053125</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>297.5546551155089</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>337.4550179536795</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>159.9479264102631</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>14.52687838733162</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>32.70075835766964</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>134.7426179953489</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="W16" t="n">
-        <v>146.1854691670918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2055,10 +2055,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>237.6821551249389</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>58.15409578032112</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065126</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>46.08866211900156</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>169.8277167599797</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>188.4590648403943</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>94.16481274941243</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>90.45344662162493</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4321,10 +4321,10 @@
         <v>569.2417729283424</v>
       </c>
       <c r="G2" t="n">
-        <v>151.2779648265292</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>151.2779648265292</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>688.885551920185</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>519.9493689922781</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.835263233623</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
         <v>799.1015098861748</v>
@@ -4561,58 +4561,58 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.30824683495</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.30824683495</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>1916.245359491379</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="X5" t="n">
-        <v>1563.476704221264</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="Y5" t="n">
-        <v>1191.835263233623</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600564</v>
+        <v>559.1928012785278</v>
       </c>
       <c r="D7" t="n">
-        <v>548.5954256477206</v>
+        <v>409.076161866192</v>
       </c>
       <c r="E7" t="n">
-        <v>400.6823320653275</v>
+        <v>369.8327295799425</v>
       </c>
       <c r="F7" t="n">
-        <v>253.7923845674171</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="G7" t="n">
-        <v>84.79258430574956</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H7" t="n">
-        <v>84.79258430574956</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I7" t="n">
-        <v>84.79258430574956</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>744.334661263822</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>375.3721443234103</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>2356.285436519557</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.819678258477</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>1130.934501327944</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>566.5654221758658</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837987</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858883</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5026,16 +5026,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5123,19 +5123,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>743.3431626812556</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247858</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>964.1357418247858</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>964.1357418247858</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y13" t="n">
-        <v>743.3431626812556</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,34 +5263,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5363,22 +5363,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>527.3450129705744</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>527.3450129705744</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5703,19 +5703,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
@@ -5761,10 +5761,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,25 +5834,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,31 +5928,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>493.0701069575854</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>324.1339240296785</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>324.1339240296785</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>674.7185717878251</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823768</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514066</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>872.6898113736385</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>703.7536284457316</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>553.6369890333958</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>405.7238954510027</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>405.7238954510027</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1327.373122315499</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1038.244483529058</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>783.5599953231707</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>494.1428252862101</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X28" t="n">
-        <v>266.1532743881928</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881928</v>
+        <v>1054.338276203878</v>
       </c>
     </row>
     <row r="29">
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1308.553578799928</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>1019.424940013486</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>764.7404518075996</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W31" t="n">
-        <v>475.3232817706389</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6885,19 +6885,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,58 +6931,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>357.520392187814</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>357.520392187814</v>
       </c>
     </row>
     <row r="41">
@@ -7390,46 +7390,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
   </sheetData>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776741</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720718</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776741</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>134.5460627409582</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>14.74113413690318</v>
       </c>
       <c r="W16" t="n">
-        <v>140.3375291694992</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>48.84084321165207</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>88.27986686624806</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>120.404906344376</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>51.71984429840955</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>33.08849621799493</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644335</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>89.37853356031236</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>84.59001010593094</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>693265.1534158317</v>
+        <v>693265.1534158319</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>693265.1534158317</v>
+        <v>693265.1534158319</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278762</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="H2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="I2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="J2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="K2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="L2" t="n">
         <v>703852.3075278756</v>
       </c>
-      <c r="J2" t="n">
-        <v>703852.3075278754</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="N2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="L2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="M2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="O2" t="n">
-        <v>703852.307527876</v>
-      </c>
       <c r="P2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278759</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.552851927044685e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218261</v>
@@ -26432,16 +26432,16 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26450,7 +26450,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,19 +26487,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108380.1417219256</v>
+        <v>-108380.1417219255</v>
       </c>
       <c r="C6" t="n">
-        <v>481587.7374926191</v>
+        <v>481587.7374926195</v>
       </c>
       <c r="D6" t="n">
-        <v>481587.7374926191</v>
+        <v>481587.7374926196</v>
       </c>
       <c r="E6" t="n">
-        <v>56426.80829023937</v>
+        <v>57303.94042398919</v>
       </c>
       <c r="F6" t="n">
-        <v>581586.8447671356</v>
+        <v>582463.976900885</v>
       </c>
       <c r="G6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008845</v>
       </c>
       <c r="H6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008849</v>
       </c>
       <c r="I6" t="n">
-        <v>581586.8447671348</v>
+        <v>582463.976900885</v>
       </c>
       <c r="J6" t="n">
-        <v>405163.6255745417</v>
+        <v>406040.757708292</v>
       </c>
       <c r="K6" t="n">
-        <v>581586.8447671358</v>
+        <v>582463.9769008848</v>
       </c>
       <c r="L6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008845</v>
       </c>
       <c r="M6" t="n">
-        <v>446785.8295332983</v>
+        <v>447662.9616670475</v>
       </c>
       <c r="N6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008849</v>
       </c>
       <c r="O6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008849</v>
       </c>
       <c r="P6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008848</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,28 +26755,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541006</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26962,13 +26962,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>55.56968306875814</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>55.56968306875812</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.9809822185503</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>32.07497342223417</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.31291207828895</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>107.5829646831821</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>14.65885272800574</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>57.12838650517403</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>11.78595076373352</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>19.88405377167416</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>152.7829238717193</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -31281,10 +31281,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31457,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35743,13 +35743,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35904,10 +35904,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091989</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415061</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091989</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
